--- a/data/ch08/영업팀별_판매현황_세로막대형차트.xlsx
+++ b/data/ch08/영업팀별_판매현황_세로막대형차트.xlsx
@@ -112,7 +112,7 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!B2:B7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -143,7 +143,7 @@
           <c:order val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!C2:C7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -174,7 +174,7 @@
           <c:order val="2"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:f>Sheet1!D2:D7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
